--- a/config_1.12/activity_year_config.xlsx
+++ b/config_1.12/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -560,10 +560,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>“act_039_ty_by_hhl”,"panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_jzsjb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -601,6 +597,10 @@
   </si>
   <si>
     <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_ty_by_hhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1100,10 +1100,10 @@
   <dimension ref="A1:XFD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U31" sqref="U31"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2553,7 +2553,7 @@
         <v>1610380799</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:22" s="27" customFormat="1" x14ac:dyDescent="0.2">
@@ -2591,10 +2591,10 @@
         <v>1</v>
       </c>
       <c r="P26" s="27" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="Q26" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R26" s="33">
         <v>44208.3125</v>
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G27" s="30" t="s">
         <v>135</v>
@@ -2644,10 +2644,10 @@
         <v>1</v>
       </c>
       <c r="P27" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Q27" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R27" s="33">
         <v>44208.3125</v>
@@ -2679,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>135</v>
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="P28" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q28" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R28" s="33">
         <v>44208.3125</v>
@@ -2753,10 +2753,10 @@
         <v>1</v>
       </c>
       <c r="P29" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q29" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R29" s="33">
         <v>44208.3125</v>
